--- a/output files/SUMMARY BY Incident Subcategory FOR incident reports JOIN da caseload JOIN prod1 JOIN prod2.xlsx
+++ b/output files/SUMMARY BY Incident Subcategory FOR incident reports JOIN da caseload JOIN prod1 JOIN prod2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="379">
   <si>
     <t>index</t>
   </si>
@@ -2689,7 +2689,7 @@
         <v>374</v>
       </c>
       <c r="EK4">
-        <v>1217</v>
+        <v>1174</v>
       </c>
       <c r="EL4">
         <v>1616</v>
@@ -2701,7 +2701,7 @@
         <v>374</v>
       </c>
       <c r="EO4">
-        <v>651</v>
+        <v>610</v>
       </c>
       <c r="EP4">
         <v>1616</v>
@@ -2713,13 +2713,13 @@
         <v>375</v>
       </c>
       <c r="ES4">
-        <v>722</v>
+        <v>680</v>
       </c>
       <c r="ET4">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="EU4">
-        <v>207513428.7790698</v>
+        <v>177868653.2392026</v>
       </c>
       <c r="EV4">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>17748900625</v>
       </c>
       <c r="FA4">
-        <v>1906342738.28757</v>
+        <v>1765938648.58772</v>
       </c>
       <c r="FB4">
         <v>1616</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="FM4">
-        <v>1371</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="5" spans="1:169">
@@ -3198,7 +3198,7 @@
         <v>374</v>
       </c>
       <c r="EK5">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="EL5">
         <v>238</v>
@@ -3210,7 +3210,7 @@
         <v>374</v>
       </c>
       <c r="EO5">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="EP5">
         <v>238</v>
@@ -3222,10 +3222,10 @@
         <v>375</v>
       </c>
       <c r="ES5">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="ET5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="EU5">
         <v>0</v>
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="FM5">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:169">
@@ -4180,7 +4180,7 @@
         <v>374</v>
       </c>
       <c r="EK7">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="EL7">
         <v>521</v>
@@ -4192,7 +4192,7 @@
         <v>374</v>
       </c>
       <c r="EO7">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="EP7">
         <v>521</v>
@@ -4204,10 +4204,10 @@
         <v>375</v>
       </c>
       <c r="ES7">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="ET7">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="EU7">
         <v>0</v>
@@ -4264,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="FM7">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:169">
@@ -4689,19 +4689,19 @@
         <v>374</v>
       </c>
       <c r="EK8">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="EL8">
         <v>383</v>
       </c>
       <c r="EM8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="EN8" t="s">
         <v>374</v>
       </c>
       <c r="EO8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="EP8">
         <v>383</v>
@@ -4713,13 +4713,13 @@
         <v>375</v>
       </c>
       <c r="ES8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="ET8">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="EU8">
-        <v>362387860.1190476</v>
+        <v>328833428.6265432</v>
       </c>
       <c r="EV8">
         <v>0</v>
@@ -4737,7 +4737,7 @@
         <v>17748900625</v>
       </c>
       <c r="FA8">
-        <v>2535533375.768227</v>
+        <v>2415298888.47385</v>
       </c>
       <c r="FB8">
         <v>383</v>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="FM8">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:169">
@@ -5198,7 +5198,7 @@
         <v>374</v>
       </c>
       <c r="EK9">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="EL9">
         <v>1026</v>
@@ -5210,7 +5210,7 @@
         <v>374</v>
       </c>
       <c r="EO9">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="EP9">
         <v>1026</v>
@@ -5222,13 +5222,13 @@
         <v>375</v>
       </c>
       <c r="ES9">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="ET9">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="EU9">
-        <v>15734840.97960993</v>
+        <v>13089159.75294985</v>
       </c>
       <c r="EV9">
         <v>0</v>
@@ -5246,7 +5246,7 @@
         <v>739537526.0416666</v>
       </c>
       <c r="FA9">
-        <v>107291107.0734947</v>
+        <v>97946398.20568845</v>
       </c>
       <c r="FB9">
         <v>1026</v>
@@ -5282,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="FM9">
-        <v>934</v>
+        <v>915</v>
       </c>
     </row>
     <row r="10" spans="1:169">
@@ -5707,7 +5707,7 @@
         <v>374</v>
       </c>
       <c r="EK10">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="EL10">
         <v>822</v>
@@ -5719,7 +5719,7 @@
         <v>374</v>
       </c>
       <c r="EO10">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="EP10">
         <v>822</v>
@@ -5731,13 +5731,13 @@
         <v>375</v>
       </c>
       <c r="ES10">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="ET10">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="EU10">
-        <v>1036552477.649676</v>
+        <v>904787332.1857345</v>
       </c>
       <c r="EV10">
         <v>0</v>
@@ -5755,7 +5755,7 @@
         <v>17748900625</v>
       </c>
       <c r="FA10">
-        <v>4176844324.595036</v>
+        <v>3915302873.830781</v>
       </c>
       <c r="FB10">
         <v>822</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="FM10">
-        <v>736</v>
+        <v>721</v>
       </c>
     </row>
     <row r="11" spans="1:169">
@@ -6216,7 +6216,7 @@
         <v>374</v>
       </c>
       <c r="EK11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="EL11">
         <v>167</v>
@@ -6228,7 +6228,7 @@
         <v>374</v>
       </c>
       <c r="EO11">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="EP11">
         <v>167</v>
@@ -6240,13 +6240,13 @@
         <v>375</v>
       </c>
       <c r="ES11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="ET11">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="EU11">
-        <v>1314733379.62963</v>
+        <v>1183260041.666667</v>
       </c>
       <c r="EV11">
         <v>0</v>
@@ -6264,7 +6264,7 @@
         <v>17748900625</v>
       </c>
       <c r="FA11">
-        <v>4736831148.585345</v>
+        <v>4503040417.341418</v>
       </c>
       <c r="FB11">
         <v>167</v>
@@ -6300,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="FM11">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:169">
@@ -7234,7 +7234,7 @@
         <v>374</v>
       </c>
       <c r="EK13">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="EL13">
         <v>48</v>
@@ -7242,8 +7242,8 @@
       <c r="EM13">
         <v>12</v>
       </c>
-      <c r="EN13" t="s">
-        <v>374</v>
+      <c r="EN13">
+        <v>0</v>
       </c>
       <c r="EO13">
         <v>17</v>
@@ -7258,10 +7258,10 @@
         <v>375</v>
       </c>
       <c r="ES13">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="ET13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="EU13">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="FM13">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:169">
@@ -7743,7 +7743,7 @@
         <v>374</v>
       </c>
       <c r="EK14">
-        <v>3201</v>
+        <v>3058</v>
       </c>
       <c r="EL14">
         <v>4315</v>
@@ -7755,7 +7755,7 @@
         <v>374</v>
       </c>
       <c r="EO14">
-        <v>1716</v>
+        <v>1579</v>
       </c>
       <c r="EP14">
         <v>4315</v>
@@ -7767,10 +7767,10 @@
         <v>375</v>
       </c>
       <c r="ES14">
-        <v>1782</v>
+        <v>1639</v>
       </c>
       <c r="ET14">
-        <v>1003</v>
+        <v>1146</v>
       </c>
       <c r="EU14">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="FM14">
-        <v>3317</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="15" spans="1:169">
@@ -10246,7 +10246,7 @@
         <v>374</v>
       </c>
       <c r="EK19">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="EL19">
         <v>94</v>
@@ -10258,7 +10258,7 @@
         <v>374</v>
       </c>
       <c r="EO19">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="EP19">
         <v>94</v>
@@ -10270,10 +10270,10 @@
         <v>375</v>
       </c>
       <c r="ES19">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="ET19">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="EU19">
         <v>0</v>
@@ -10330,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="FM19">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:169">
@@ -10755,7 +10755,7 @@
         <v>374</v>
       </c>
       <c r="EK20">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="EL20">
         <v>226</v>
@@ -10767,7 +10767,7 @@
         <v>374</v>
       </c>
       <c r="EO20">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="EP20">
         <v>226</v>
@@ -10779,10 +10779,10 @@
         <v>375</v>
       </c>
       <c r="ES20">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="ET20">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="EU20">
         <v>0</v>
@@ -10839,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="FM20">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:169">
@@ -12731,7 +12731,7 @@
         <v>374</v>
       </c>
       <c r="EK24">
-        <v>548</v>
+        <v>522</v>
       </c>
       <c r="EL24">
         <v>687</v>
@@ -12743,7 +12743,7 @@
         <v>374</v>
       </c>
       <c r="EO24">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="EP24">
         <v>687</v>
@@ -12755,10 +12755,10 @@
         <v>375</v>
       </c>
       <c r="ES24">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="ET24">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="EU24">
         <v>0</v>
@@ -12815,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="FM24">
-        <v>569</v>
+        <v>543</v>
       </c>
     </row>
     <row r="25" spans="1:169">
@@ -13240,7 +13240,7 @@
         <v>374</v>
       </c>
       <c r="EK25">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="EL25">
         <v>46</v>
@@ -13252,7 +13252,7 @@
         <v>374</v>
       </c>
       <c r="EO25">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EP25">
         <v>46</v>
@@ -13264,13 +13264,13 @@
         <v>375</v>
       </c>
       <c r="ES25">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="ET25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="EU25">
-        <v>1183260041.666667</v>
+        <v>845185744.0476191</v>
       </c>
       <c r="EV25">
         <v>0</v>
@@ -13282,13 +13282,13 @@
         <v>0</v>
       </c>
       <c r="EY25">
-        <v>2958150104.166667</v>
+        <v>1479075052.083333</v>
       </c>
       <c r="EZ25">
         <v>2958150104.166667</v>
       </c>
       <c r="FA25">
-        <v>1620245540.53834</v>
+        <v>1443429451.224481</v>
       </c>
       <c r="FB25">
         <v>46</v>
@@ -13324,7 +13324,7 @@
         <v>0</v>
       </c>
       <c r="FM25">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:169">
@@ -14237,7 +14237,7 @@
         <v>374</v>
       </c>
       <c r="EK27">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="EL27">
         <v>378</v>
@@ -14249,7 +14249,7 @@
         <v>374</v>
       </c>
       <c r="EO27">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="EP27">
         <v>378</v>
@@ -14261,13 +14261,13 @@
         <v>375</v>
       </c>
       <c r="ES27">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="ET27">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="EU27">
-        <v>135121.6059027778</v>
+        <v>128687.2437169312</v>
       </c>
       <c r="EV27">
         <v>0</v>
@@ -14285,7 +14285,7 @@
         <v>8104520.833333334</v>
       </c>
       <c r="FA27">
-        <v>1046283.128698476</v>
+        <v>1021068.068405191</v>
       </c>
       <c r="FB27">
         <v>378</v>
@@ -14321,7 +14321,7 @@
         <v>0</v>
       </c>
       <c r="FM27">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:169">
@@ -14746,7 +14746,7 @@
         <v>374</v>
       </c>
       <c r="EK28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EL28">
         <v>29</v>
@@ -14758,7 +14758,7 @@
         <v>374</v>
       </c>
       <c r="EO28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EP28">
         <v>29</v>
@@ -14770,10 +14770,10 @@
         <v>375</v>
       </c>
       <c r="ES28">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="ET28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="EU28">
         <v>0</v>
@@ -14830,7 +14830,7 @@
         <v>0</v>
       </c>
       <c r="FM28">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:169">
@@ -15255,7 +15255,7 @@
         <v>374</v>
       </c>
       <c r="EK29">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="EL29">
         <v>262</v>
@@ -15267,7 +15267,7 @@
         <v>374</v>
       </c>
       <c r="EO29">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="EP29">
         <v>262</v>
@@ -15279,10 +15279,10 @@
         <v>375</v>
       </c>
       <c r="ES29">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="ET29">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="EU29">
         <v>0</v>
@@ -15339,7 +15339,7 @@
         <v>0</v>
       </c>
       <c r="FM29">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:169">
@@ -15764,7 +15764,7 @@
         <v>374</v>
       </c>
       <c r="EK30">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="EL30">
         <v>278</v>
@@ -15776,7 +15776,7 @@
         <v>374</v>
       </c>
       <c r="EO30">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="EP30">
         <v>278</v>
@@ -15788,10 +15788,10 @@
         <v>375</v>
       </c>
       <c r="ES30">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="ET30">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="EU30">
         <v>0</v>
@@ -15848,7 +15848,7 @@
         <v>0</v>
       </c>
       <c r="FM30">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:169">
@@ -16761,7 +16761,7 @@
         <v>374</v>
       </c>
       <c r="EK32">
-        <v>751</v>
+        <v>705</v>
       </c>
       <c r="EL32">
         <v>947</v>
@@ -16773,7 +16773,7 @@
         <v>374</v>
       </c>
       <c r="EO32">
-        <v>433</v>
+        <v>388</v>
       </c>
       <c r="EP32">
         <v>947</v>
@@ -16785,10 +16785,10 @@
         <v>375</v>
       </c>
       <c r="ES32">
-        <v>516</v>
+        <v>471</v>
       </c>
       <c r="ET32">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="EU32">
         <v>0</v>
@@ -16845,7 +16845,7 @@
         <v>0</v>
       </c>
       <c r="FM32">
-        <v>781</v>
+        <v>735</v>
       </c>
     </row>
     <row r="33" spans="1:169">
@@ -17779,7 +17779,7 @@
         <v>374</v>
       </c>
       <c r="EK34">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EL34">
         <v>32</v>
@@ -17787,8 +17787,8 @@
       <c r="EM34">
         <v>7</v>
       </c>
-      <c r="EN34" t="s">
-        <v>374</v>
+      <c r="EN34">
+        <v>0</v>
       </c>
       <c r="EO34">
         <v>12</v>
@@ -17799,14 +17799,14 @@
       <c r="EQ34">
         <v>4</v>
       </c>
-      <c r="ER34" t="s">
-        <v>375</v>
+      <c r="ER34">
+        <v>0</v>
       </c>
       <c r="ES34">
         <v>12</v>
       </c>
       <c r="ET34">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="EU34">
         <v>0</v>
@@ -17863,7 +17863,7 @@
         <v>0</v>
       </c>
       <c r="FM34">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:169">
@@ -19303,7 +19303,7 @@
         <v>374</v>
       </c>
       <c r="EK37">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="EL37">
         <v>41</v>
@@ -19315,7 +19315,7 @@
         <v>374</v>
       </c>
       <c r="EO37">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="EP37">
         <v>41</v>
@@ -19327,10 +19327,10 @@
         <v>375</v>
       </c>
       <c r="ES37">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="ET37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="EU37">
         <v>0</v>
@@ -19387,7 +19387,7 @@
         <v>0</v>
       </c>
       <c r="FM37">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:169">
@@ -20794,19 +20794,19 @@
         <v>374</v>
       </c>
       <c r="EK40">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="EL40">
         <v>660</v>
       </c>
       <c r="EM40">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="EN40" t="s">
         <v>374</v>
       </c>
       <c r="EO40">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="EP40">
         <v>660</v>
@@ -20818,13 +20818,13 @@
         <v>375</v>
       </c>
       <c r="ES40">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="ET40">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="EU40">
-        <v>120962.9975124378</v>
+        <v>102588.8713080169</v>
       </c>
       <c r="EV40">
         <v>0</v>
@@ -20842,7 +20842,7 @@
         <v>8104520.833333334</v>
       </c>
       <c r="FA40">
-        <v>990124.8069824333</v>
+        <v>911829.8332386231</v>
       </c>
       <c r="FB40">
         <v>660</v>
@@ -20878,7 +20878,7 @@
         <v>0</v>
       </c>
       <c r="FM40">
-        <v>594</v>
+        <v>582</v>
       </c>
     </row>
     <row r="41" spans="1:169">
@@ -21303,7 +21303,7 @@
         <v>374</v>
       </c>
       <c r="EK41">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EL41">
         <v>17</v>
@@ -21315,7 +21315,7 @@
         <v>374</v>
       </c>
       <c r="EO41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="EP41">
         <v>17</v>
@@ -21327,10 +21327,10 @@
         <v>375</v>
       </c>
       <c r="ES41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="ET41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="EU41">
         <v>0</v>
@@ -21387,7 +21387,7 @@
         <v>0</v>
       </c>
       <c r="FM41">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:169">
@@ -21812,7 +21812,7 @@
         <v>374</v>
       </c>
       <c r="EK42">
-        <v>756</v>
+        <v>713</v>
       </c>
       <c r="EL42">
         <v>1094</v>
@@ -21824,7 +21824,7 @@
         <v>374</v>
       </c>
       <c r="EO42">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="EP42">
         <v>1094</v>
@@ -21836,13 +21836,13 @@
         <v>375</v>
       </c>
       <c r="ES42">
-        <v>544</v>
+        <v>500</v>
       </c>
       <c r="ET42">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="EU42">
-        <v>914043.7030075188</v>
+        <v>781786.575562701</v>
       </c>
       <c r="EV42">
         <v>0</v>
@@ -21860,7 +21860,7 @@
         <v>97254250</v>
       </c>
       <c r="FA42">
-        <v>8914507.7822366</v>
+        <v>8248420.26013595</v>
       </c>
       <c r="FB42">
         <v>1094</v>
@@ -21896,7 +21896,7 @@
         <v>0</v>
       </c>
       <c r="FM42">
-        <v>832</v>
+        <v>787</v>
       </c>
     </row>
     <row r="43" spans="1:169">
@@ -22321,7 +22321,7 @@
         <v>374</v>
       </c>
       <c r="EK43">
-        <v>6089</v>
+        <v>5877</v>
       </c>
       <c r="EL43">
         <v>7490</v>
@@ -22333,7 +22333,7 @@
         <v>374</v>
       </c>
       <c r="EO43">
-        <v>3095</v>
+        <v>2888</v>
       </c>
       <c r="EP43">
         <v>7490</v>
@@ -22345,13 +22345,13 @@
         <v>375</v>
       </c>
       <c r="ES43">
-        <v>3436</v>
+        <v>3228</v>
       </c>
       <c r="ET43">
-        <v>1036</v>
+        <v>1250</v>
       </c>
       <c r="EU43">
-        <v>171646510.7841659</v>
+        <v>142260628.1379167</v>
       </c>
       <c r="EV43">
         <v>0</v>
@@ -22369,7 +22369,7 @@
         <v>17748900625</v>
       </c>
       <c r="FA43">
-        <v>1736153533.194135</v>
+        <v>1581759688.54137</v>
       </c>
       <c r="FB43">
         <v>7490</v>
@@ -22405,7 +22405,7 @@
         <v>0</v>
       </c>
       <c r="FM43">
-        <v>6494</v>
+        <v>6280</v>
       </c>
     </row>
     <row r="44" spans="1:169">
@@ -22830,7 +22830,7 @@
         <v>374</v>
       </c>
       <c r="EK44">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="EL44">
         <v>29</v>
@@ -22842,7 +22842,7 @@
         <v>374</v>
       </c>
       <c r="EO44">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="EP44">
         <v>29</v>
@@ -22854,10 +22854,10 @@
         <v>375</v>
       </c>
       <c r="ES44">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="ET44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EU44">
         <v>0</v>
@@ -22914,7 +22914,7 @@
         <v>0</v>
       </c>
       <c r="FM44">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:169">
@@ -23339,7 +23339,7 @@
         <v>374</v>
       </c>
       <c r="EK45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EL45">
         <v>14</v>
@@ -23347,11 +23347,11 @@
       <c r="EM45">
         <v>3</v>
       </c>
-      <c r="EN45" t="s">
-        <v>374</v>
+      <c r="EN45">
+        <v>0</v>
       </c>
       <c r="EO45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="EP45">
         <v>14</v>
@@ -23359,14 +23359,14 @@
       <c r="EQ45">
         <v>3</v>
       </c>
-      <c r="ER45" t="s">
-        <v>375</v>
+      <c r="ER45">
+        <v>0</v>
       </c>
       <c r="ES45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="ET45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="EU45">
         <v>0</v>
@@ -23423,7 +23423,7 @@
         <v>0</v>
       </c>
       <c r="FM45">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:169">
@@ -24336,19 +24336,19 @@
         <v>374</v>
       </c>
       <c r="EK47">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="EL47">
         <v>429</v>
       </c>
       <c r="EM47">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="EN47" t="s">
         <v>374</v>
       </c>
       <c r="EO47">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="EP47">
         <v>429</v>
@@ -24360,10 +24360,10 @@
         <v>375</v>
       </c>
       <c r="ES47">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="ET47">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="EU47">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="FM47">
-        <v>381</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="1:169">
@@ -25354,19 +25354,19 @@
         <v>374</v>
       </c>
       <c r="EK49">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="EL49">
         <v>662</v>
       </c>
       <c r="EM49">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="EN49" t="s">
         <v>374</v>
       </c>
       <c r="EO49">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="EP49">
         <v>662</v>
@@ -25378,13 +25378,13 @@
         <v>375</v>
       </c>
       <c r="ES49">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="ET49">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="EU49">
-        <v>107569094.6969697</v>
+        <v>91020003.20512821</v>
       </c>
       <c r="EV49">
         <v>0</v>
@@ -25402,7 +25402,7 @@
         <v>2958150104.166667</v>
       </c>
       <c r="FA49">
-        <v>558849562.6797472</v>
+        <v>514824035.6792662</v>
       </c>
       <c r="FB49">
         <v>662</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="FM49">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="50" spans="1:169">
@@ -25863,7 +25863,7 @@
         <v>374</v>
       </c>
       <c r="EK50">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="EL50">
         <v>551</v>
@@ -25875,7 +25875,7 @@
         <v>374</v>
       </c>
       <c r="EO50">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="EP50">
         <v>551</v>
@@ -25887,13 +25887,13 @@
         <v>375</v>
       </c>
       <c r="ES50">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="ET50">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="EU50">
-        <v>405594428.9772727</v>
+        <v>297435914.5833333</v>
       </c>
       <c r="EV50">
         <v>0</v>
@@ -25911,7 +25911,7 @@
         <v>17748900625</v>
       </c>
       <c r="FA50">
-        <v>2675426076.020335</v>
+        <v>2291177312.618682</v>
       </c>
       <c r="FB50">
         <v>551</v>
@@ -25947,7 +25947,7 @@
         <v>0</v>
       </c>
       <c r="FM50">
-        <v>511</v>
+        <v>495</v>
       </c>
     </row>
     <row r="51" spans="1:169">
@@ -26860,7 +26860,7 @@
         <v>374</v>
       </c>
       <c r="EK52">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="EL52">
         <v>208</v>
@@ -26872,7 +26872,7 @@
         <v>374</v>
       </c>
       <c r="EO52">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="EP52">
         <v>208</v>
@@ -26884,13 +26884,13 @@
         <v>375</v>
       </c>
       <c r="ES52">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="ET52">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="EU52">
-        <v>1615746744.318182</v>
+        <v>1421857135</v>
       </c>
       <c r="EV52">
         <v>0</v>
@@ -26908,7 +26908,7 @@
         <v>17748900625</v>
       </c>
       <c r="FA52">
-        <v>5221819084.01793</v>
+        <v>4913872236.590238</v>
       </c>
       <c r="FB52">
         <v>208</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="FM52">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:169">
@@ -27369,7 +27369,7 @@
         <v>374</v>
       </c>
       <c r="EK53">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="EL53">
         <v>102</v>
@@ -27381,7 +27381,7 @@
         <v>374</v>
       </c>
       <c r="EO53">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="EP53">
         <v>102</v>
@@ -27393,10 +27393,10 @@
         <v>375</v>
       </c>
       <c r="ES53">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="ET53">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="EU53">
         <v>0</v>
@@ -27453,7 +27453,7 @@
         <v>0</v>
       </c>
       <c r="FM53">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:169">
@@ -27878,7 +27878,7 @@
         <v>374</v>
       </c>
       <c r="EK54">
-        <v>684</v>
+        <v>648</v>
       </c>
       <c r="EL54">
         <v>859</v>
@@ -27890,7 +27890,7 @@
         <v>374</v>
       </c>
       <c r="EO54">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="EP54">
         <v>859</v>
@@ -27902,13 +27902,13 @@
         <v>375</v>
       </c>
       <c r="ES54">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="ET54">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="EU54">
-        <v>119120138.4228188</v>
+        <v>95940003.37837838</v>
       </c>
       <c r="EV54">
         <v>0</v>
@@ -27926,7 +27926,7 @@
         <v>17748900625</v>
       </c>
       <c r="FA54">
-        <v>1454046594.612035</v>
+        <v>1304925126.558992</v>
       </c>
       <c r="FB54">
         <v>859</v>
@@ -27962,7 +27962,7 @@
         <v>0</v>
       </c>
       <c r="FM54">
-        <v>714</v>
+        <v>678</v>
       </c>
     </row>
     <row r="55" spans="1:169">
@@ -28381,19 +28381,19 @@
         <v>38</v>
       </c>
       <c r="EI55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EJ55" t="s">
         <v>374</v>
       </c>
       <c r="EK55">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="EL55">
         <v>38</v>
       </c>
       <c r="EM55">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="EN55">
         <v>1</v>
@@ -28405,7 +28405,7 @@
         <v>38</v>
       </c>
       <c r="EQ55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="ER55">
         <v>3</v>
@@ -28414,6 +28414,27 @@
         <v>25</v>
       </c>
       <c r="ET55">
+        <v>2</v>
+      </c>
+      <c r="EU55">
+        <v>0</v>
+      </c>
+      <c r="EV55">
+        <v>0</v>
+      </c>
+      <c r="EW55">
+        <v>0</v>
+      </c>
+      <c r="EX55">
+        <v>0</v>
+      </c>
+      <c r="EY55">
+        <v>0</v>
+      </c>
+      <c r="EZ55">
+        <v>0</v>
+      </c>
+      <c r="FA55">
         <v>0</v>
       </c>
       <c r="FB55">
@@ -28444,13 +28465,13 @@
         <v>38</v>
       </c>
       <c r="FK55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FL55" t="b">
         <v>0</v>
       </c>
       <c r="FM55">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:169">
@@ -28875,7 +28896,7 @@
         <v>374</v>
       </c>
       <c r="EK56">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="EL56">
         <v>989</v>
@@ -28887,7 +28908,7 @@
         <v>374</v>
       </c>
       <c r="EO56">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="EP56">
         <v>989</v>
@@ -28899,10 +28920,10 @@
         <v>375</v>
       </c>
       <c r="ES56">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="ET56">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="EU56">
         <v>0</v>
@@ -28959,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="FM56">
-        <v>871</v>
+        <v>856</v>
       </c>
     </row>
     <row r="57" spans="1:169">
@@ -30366,19 +30387,19 @@
         <v>374</v>
       </c>
       <c r="EK59">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="EL59">
         <v>768</v>
       </c>
       <c r="EM59">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="EN59" t="s">
         <v>374</v>
       </c>
       <c r="EO59">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="EP59">
         <v>768</v>
@@ -30390,13 +30411,13 @@
         <v>375</v>
       </c>
       <c r="ES59">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="ET59">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="EU59">
-        <v>641526528.6144578</v>
+        <v>572545181.4516129</v>
       </c>
       <c r="EV59">
         <v>0</v>
@@ -30414,7 +30435,7 @@
         <v>17748900625</v>
       </c>
       <c r="FA59">
-        <v>3332967710.714081</v>
+        <v>3152956303.565258</v>
       </c>
       <c r="FB59">
         <v>768</v>
@@ -30450,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="FM59">
-        <v>689</v>
+        <v>679</v>
       </c>
     </row>
     <row r="60" spans="1:169">
@@ -31384,7 +31405,7 @@
         <v>374</v>
       </c>
       <c r="EK61">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="EL61">
         <v>115</v>
@@ -31396,7 +31417,7 @@
         <v>374</v>
       </c>
       <c r="EO61">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="EP61">
         <v>115</v>
@@ -31408,13 +31429,13 @@
         <v>375</v>
       </c>
       <c r="ES61">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="ET61">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="EU61">
-        <v>3647034.375</v>
+        <v>2805411.057692308</v>
       </c>
       <c r="EV61">
         <v>0</v>
@@ -31432,7 +31453,7 @@
         <v>36470343.75</v>
       </c>
       <c r="FA61">
-        <v>11532935.32992865</v>
+        <v>10115053.41726328</v>
       </c>
       <c r="FB61">
         <v>115</v>
@@ -31468,7 +31489,7 @@
         <v>0</v>
       </c>
       <c r="FM61">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:169">
@@ -31893,7 +31914,7 @@
         <v>374</v>
       </c>
       <c r="EK62">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="EL62">
         <v>303</v>
@@ -31905,7 +31926,7 @@
         <v>374</v>
       </c>
       <c r="EO62">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="EP62">
         <v>303</v>
@@ -31917,13 +31938,13 @@
         <v>375</v>
       </c>
       <c r="ES62">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="ET62">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="EU62">
-        <v>3165.828450520833</v>
+        <v>2775.520833333333</v>
       </c>
       <c r="EV62">
         <v>0</v>
@@ -31941,7 +31962,7 @@
         <v>199837.5</v>
       </c>
       <c r="FA62">
-        <v>24975.36567201293</v>
+        <v>23385.81048406948</v>
       </c>
       <c r="FB62">
         <v>303</v>
@@ -31977,7 +31998,7 @@
         <v>0</v>
       </c>
       <c r="FM62">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:169">
@@ -32402,7 +32423,7 @@
         <v>374</v>
       </c>
       <c r="EK63">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="EL63">
         <v>230</v>
@@ -32414,7 +32435,7 @@
         <v>374</v>
       </c>
       <c r="EO63">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="EP63">
         <v>230</v>
@@ -32426,13 +32447,13 @@
         <v>375</v>
       </c>
       <c r="ES63">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="ET63">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="EU63">
-        <v>917492.9245283019</v>
+        <v>748109.6153846154</v>
       </c>
       <c r="EV63">
         <v>0</v>
@@ -32450,7 +32471,7 @@
         <v>48627125</v>
       </c>
       <c r="FA63">
-        <v>6679449.313203395</v>
+        <v>6031452.543211264</v>
       </c>
       <c r="FB63">
         <v>230</v>
@@ -32486,7 +32507,7 @@
         <v>0</v>
       </c>
       <c r="FM63">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:169">
@@ -32911,7 +32932,7 @@
         <v>374</v>
       </c>
       <c r="EK64">
-        <v>1019</v>
+        <v>987</v>
       </c>
       <c r="EL64">
         <v>1221</v>
@@ -32923,7 +32944,7 @@
         <v>374</v>
       </c>
       <c r="EO64">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="EP64">
         <v>1221</v>
@@ -32935,10 +32956,10 @@
         <v>375</v>
       </c>
       <c r="ES64">
-        <v>585</v>
+        <v>553</v>
       </c>
       <c r="ET64">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="EU64">
         <v>0</v>
@@ -32995,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="FM64">
-        <v>1066</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="65" spans="1:169">
@@ -33929,7 +33950,7 @@
         <v>374</v>
       </c>
       <c r="EK66">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="EL66">
         <v>709</v>
@@ -33941,7 +33962,7 @@
         <v>374</v>
       </c>
       <c r="EO66">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="EP66">
         <v>709</v>
@@ -33953,10 +33974,10 @@
         <v>375</v>
       </c>
       <c r="ES66">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="ET66">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="EU66">
         <v>0</v>
@@ -34013,7 +34034,7 @@
         <v>0</v>
       </c>
       <c r="FM66">
-        <v>565</v>
+        <v>544</v>
       </c>
     </row>
     <row r="67" spans="1:169">
@@ -34438,7 +34459,7 @@
         <v>374</v>
       </c>
       <c r="EK67">
-        <v>1058</v>
+        <v>1014</v>
       </c>
       <c r="EL67">
         <v>1610</v>
@@ -34450,7 +34471,7 @@
         <v>374</v>
       </c>
       <c r="EO67">
-        <v>572</v>
+        <v>522</v>
       </c>
       <c r="EP67">
         <v>1610</v>
@@ -34462,13 +34483,13 @@
         <v>375</v>
       </c>
       <c r="ES67">
-        <v>642</v>
+        <v>592</v>
       </c>
       <c r="ET67">
-        <v>477</v>
+        <v>527</v>
       </c>
       <c r="EU67">
-        <v>155481069.4881202</v>
+        <v>140729544.868754</v>
       </c>
       <c r="EV67">
         <v>0</v>
@@ -34486,7 +34507,7 @@
         <v>17748900625</v>
       </c>
       <c r="FA67">
-        <v>1625255262.841662</v>
+        <v>1546753291.43367</v>
       </c>
       <c r="FB67">
         <v>1610</v>
@@ -34522,7 +34543,7 @@
         <v>0</v>
       </c>
       <c r="FM67">
-        <v>1146</v>
+        <v>1096</v>
       </c>
     </row>
   </sheetData>
